--- a/jpcore-r4/feature/swg5-add_examples/CodeSystem-jp-jfagy-cs.xlsx
+++ b/jpcore-r4/feature/swg5-add_examples/CodeSystem-jp-jfagy-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T03:44:14+00:00</t>
+    <t>2022-06-16T04:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-add_examples/CodeSystem-jp-jfagy-cs.xlsx
+++ b/jpcore-r4/feature/swg5-add_examples/CodeSystem-jp-jfagy-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-16T04:09:21+00:00</t>
+    <t>2022-06-27T00:23:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-add_examples/CodeSystem-jp-jfagy-cs.xlsx
+++ b/jpcore-r4/feature/swg5-add_examples/CodeSystem-jp-jfagy-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T00:23:44+00:00</t>
+    <t>2022-06-27T01:46:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-add_examples/CodeSystem-jp-jfagy-cs.xlsx
+++ b/jpcore-r4/feature/swg5-add_examples/CodeSystem-jp-jfagy-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T01:46:06+00:00</t>
+    <t>2022-06-27T01:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-add_examples/CodeSystem-jp-jfagy-cs.xlsx
+++ b/jpcore-r4/feature/swg5-add_examples/CodeSystem-jp-jfagy-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T01:56:40+00:00</t>
+    <t>2022-06-27T02:25:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-add_examples/CodeSystem-jp-jfagy-cs.xlsx
+++ b/jpcore-r4/feature/swg5-add_examples/CodeSystem-jp-jfagy-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T02:25:16+00:00</t>
+    <t>2022-06-27T13:42:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-add_examples/CodeSystem-jp-jfagy-cs.xlsx
+++ b/jpcore-r4/feature/swg5-add_examples/CodeSystem-jp-jfagy-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T13:42:57+00:00</t>
+    <t>2022-06-28T02:10:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-add_examples/CodeSystem-jp-jfagy-cs.xlsx
+++ b/jpcore-r4/feature/swg5-add_examples/CodeSystem-jp-jfagy-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T02:10:26+00:00</t>
+    <t>2022-07-01T01:50:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-add_examples/CodeSystem-jp-jfagy-cs.xlsx
+++ b/jpcore-r4/feature/swg5-add_examples/CodeSystem-jp-jfagy-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-01T01:50:43+00:00</t>
+    <t>2022-07-01T02:16:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-add_examples/CodeSystem-jp-jfagy-cs.xlsx
+++ b/jpcore-r4/feature/swg5-add_examples/CodeSystem-jp-jfagy-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-01T02:16:06+00:00</t>
+    <t>2022-07-02T01:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
